--- a/currentbuild/ValueSet-lmdi-address-type.xlsx
+++ b/currentbuild/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:14:42+00:00</t>
+    <t>2025-10-02T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-lmdi-address-type.xlsx
+++ b/currentbuild/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:43:18+00:00</t>
+    <t>2025-10-02T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-lmdi-address-type.xlsx
+++ b/currentbuild/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:45:21+00:00</t>
+    <t>2025-10-04T20:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-lmdi-address-type.xlsx
+++ b/currentbuild/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-04T20:30:12+00:00</t>
+    <t>2025-10-06T07:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-lmdi-address-type.xlsx
+++ b/currentbuild/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:28:15+00:00</t>
+    <t>2025-10-07T11:27:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-lmdi-address-type.xlsx
+++ b/currentbuild/ValueSet-lmdi-address-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:19+00:00</t>
+    <t>2025-11-21T14:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
